--- a/OnBoard/output/trust/catch/Catch_Trust_37.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_37.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.039</v>
+        <v>0.395</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,19 +478,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G3">
-        <v>0.007</v>
+        <v>3.81</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,19 +519,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Lithognathus mormyrus</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.904</v>
+        <v>0.101</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.022</v>
+        <v>1.61</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G6">
-        <v>1.295</v>
+        <v>0.11</v>
       </c>
       <c r="H6">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="G7">
-        <v>0.014</v>
+        <v>0.343</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -663,7 +663,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -683,19 +683,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.139</v>
+        <v>1.631</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="G9">
-        <v>1.341</v>
+        <v>2.265</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -745,7 +745,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="G10">
-        <v>0.119</v>
+        <v>1.37</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -786,7 +786,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -806,16 +806,16 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Uranoscopus scaber</t>
+          <t>Trachurus mediterraneus</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TRACMED</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.054</v>
+        <v>0.1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -827,7 +827,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -842,24 +842,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Uranoscopus scaber</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.05</v>
+        <v>0.063</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.07199999999999999</v>
+        <v>0.279</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -909,7 +909,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="G14">
-        <v>1.55</v>
+        <v>3.771</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -950,7 +950,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G15">
-        <v>0.021</v>
+        <v>0.015</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="G16">
-        <v>1.274</v>
+        <v>1.244</v>
       </c>
       <c r="H16">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1032,7 +1032,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="G17">
-        <v>0.122</v>
+        <v>0.347</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1093,19 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Octopus vulgaris</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>OCTOVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G18">
-        <v>1.057</v>
+        <v>0.248</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1114,7 +1114,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1134,16 +1134,16 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Raja asterias</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.006</v>
+        <v>0.189</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1155,7 +1155,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1175,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.883</v>
+        <v>0.365</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="G21">
-        <v>0.905</v>
+        <v>2.205</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1237,7 +1237,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="G22">
-        <v>0.123</v>
+        <v>1.246</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="G23">
-        <v>0.111</v>
+        <v>0.06</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1339,28 +1339,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Abra prismatica</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ABRAPRI</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G24">
         <v>0.001</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1380,28 +1380,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Anadara kagoshimensis</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>ANADKAG</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.002</v>
+        <v>0.466</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1421,28 +1421,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Anadara kagoshimensis</t>
+          <t>Anadara spp.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ANADKAG</t>
+          <t>ANADSPP</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.383</v>
+        <v>0.002</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I26">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1471,19 +1471,19 @@
         </is>
       </c>
       <c r="G27">
-        <v>0.923</v>
+        <v>2.381</v>
       </c>
       <c r="H27">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="I27">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1512,19 +1512,19 @@
         </is>
       </c>
       <c r="G28">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1553,19 +1553,19 @@
         </is>
       </c>
       <c r="G29">
-        <v>0.172</v>
+        <v>0.113</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I29">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1594,19 +1594,19 @@
         </is>
       </c>
       <c r="G30">
-        <v>0.84</v>
+        <v>0.001</v>
       </c>
       <c r="H30">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1635,19 +1635,19 @@
         </is>
       </c>
       <c r="G31">
-        <v>0.041</v>
+        <v>0.049</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I31">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="G32">
-        <v>0.008999999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H32">
         <v>-1</v>
       </c>
       <c r="I32">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1717,19 +1717,19 @@
         </is>
       </c>
       <c r="G33">
-        <v>0.362</v>
+        <v>0.311</v>
       </c>
       <c r="H33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I33">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1749,28 +1749,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Chlamys glabra</t>
+          <t>Calyptraea chinensis</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>CALICHI</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.017</v>
+        <v>0.001</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1790,28 +1790,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Chlamys varia</t>
+          <t>Chlamys glabra</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CHLAVAR</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1831,28 +1831,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Corbula gibba</t>
+          <t>Chlamys varia</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CORBGIB</t>
+          <t>CHLAVAR</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.004</v>
+        <v>0.027</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1872,28 +1872,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Corbula gibba</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>CORBGIB</t>
         </is>
       </c>
       <c r="G37">
         <v>0.001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1913,28 +1913,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Eggs of Tonna</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>EGGSTON</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.027</v>
+        <v>0.001</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I38">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1963,19 +1963,19 @@
         </is>
       </c>
       <c r="G39">
-        <v>0.097</v>
+        <v>0.083</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
       <c r="I39">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2004,19 +2004,19 @@
         </is>
       </c>
       <c r="G40">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="G41">
-        <v>0.06900000000000001</v>
+        <v>0.026</v>
       </c>
       <c r="H41">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2089,16 +2089,16 @@
         <v>0.001</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2127,19 +2127,19 @@
         </is>
       </c>
       <c r="G43">
-        <v>0.005</v>
+        <v>0.031</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2168,19 +2168,19 @@
         </is>
       </c>
       <c r="G44">
-        <v>0.961</v>
+        <v>0.358</v>
       </c>
       <c r="H44">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I44">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2215,13 +2215,13 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2241,28 +2241,28 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.001</v>
+        <v>2.868</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I46">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2282,28 +2282,28 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Serpulidae NA</t>
+          <t>Stones NA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SERPSPP</t>
+          <t>STONES</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.001</v>
+        <v>0.058</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I47">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2323,104 +2323,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G48">
-        <v>2.525</v>
+        <v>0.017</v>
       </c>
       <c r="H48">
         <v>-1</v>
       </c>
       <c r="I48">
-        <v>19.3903</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Turritella communis</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>TURRCOM</t>
-        </is>
-      </c>
-      <c r="G49">
-        <v>0.017</v>
-      </c>
-      <c r="H49">
-        <v>21</v>
-      </c>
-      <c r="I49">
-        <v>19.3903</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G50">
-        <v>0.139</v>
-      </c>
-      <c r="H50">
-        <v>-1</v>
-      </c>
-      <c r="I50">
-        <v>19.3903</v>
+        <v>18.2244</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_37.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_37.xlsx
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="25">
@@ -1395,7 +1395,7 @@
         <v>20</v>
       </c>
       <c r="I25">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="26">
@@ -1436,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="I26">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="27">
@@ -1477,7 +1477,7 @@
         <v>500</v>
       </c>
       <c r="I27">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="I28">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="I29">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="30">
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="31">
@@ -1641,7 +1641,7 @@
         <v>16</v>
       </c>
       <c r="I31">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1682,7 @@
         <v>-1</v>
       </c>
       <c r="I32">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="33">
@@ -1723,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="I33">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="36">
@@ -1846,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="I36">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="37">
@@ -1887,7 +1887,7 @@
         <v>8</v>
       </c>
       <c r="I37">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1928,7 @@
         <v>-1</v>
       </c>
       <c r="I38">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="39">
@@ -1969,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="I39">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="40">
@@ -2010,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="I40">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="41">
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="I41">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="42">
@@ -2092,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="I42">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="43">
@@ -2133,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="I43">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="44">
@@ -2174,7 +2174,7 @@
         <v>19</v>
       </c>
       <c r="I44">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="45">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="46">
@@ -2256,7 +2256,7 @@
         <v>-1</v>
       </c>
       <c r="I46">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="47">
@@ -2297,7 +2297,7 @@
         <v>-1</v>
       </c>
       <c r="I47">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
     <row r="48">
@@ -2338,7 +2338,7 @@
         <v>-1</v>
       </c>
       <c r="I48">
-        <v>18.2244</v>
+        <v>54.11764705882353</v>
       </c>
     </row>
   </sheetData>
